--- a/Artifacts/World Mid Stocks_stocks.xlsx
+++ b/Artifacts/World Mid Stocks_stocks.xlsx
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>10371743744</v>
+        <v>10447742976</v>
       </c>
       <c r="H2" t="n">
-        <v>26.69164</v>
+        <v>26.317324</v>
       </c>
       <c r="I2" t="n">
-        <v>18.464268</v>
+        <v>18.234043</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4455834371554832</v>
+        <v>0.4433071151581687</v>
       </c>
       <c r="K2" t="n">
         <v>4168800000</v>
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>17216669696</v>
+        <v>17145148416</v>
       </c>
       <c r="H3" t="n">
-        <v>25.791668</v>
+        <v>25.468254</v>
       </c>
       <c r="I3" t="n">
-        <v>26.050102</v>
+        <v>25.723448</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.009920652134106756</v>
+        <v>-0.009920676263928563</v>
       </c>
       <c r="K3" t="n">
         <v>16074698752</v>
@@ -627,16 +627,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>29347606528</v>
+        <v>26550269952</v>
       </c>
       <c r="H4" t="n">
-        <v>590.9286</v>
+        <v>519.6</v>
       </c>
       <c r="I4" t="n">
-        <v>176.02129</v>
+        <v>165.82979</v>
       </c>
       <c r="J4" t="n">
-        <v>2.357142763809991</v>
+        <v>2.13333328107091</v>
       </c>
       <c r="K4" t="n">
         <v>3224411904</v>
@@ -677,16 +677,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>14206299136</v>
+        <v>14036891648</v>
       </c>
       <c r="H5" t="n">
-        <v>40.710846</v>
+        <v>40.621952</v>
       </c>
       <c r="I5" t="n">
-        <v>30.718182</v>
+        <v>30.281818</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3253012824782404</v>
+        <v>0.3414634484627046</v>
       </c>
       <c r="K5" t="n">
         <v>1507900032</v>
@@ -727,16 +727,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>9350740992</v>
+        <v>9291302912</v>
       </c>
       <c r="H6" t="n">
-        <v>21.79054</v>
+        <v>21.094593</v>
       </c>
       <c r="I6" t="n">
-        <v>12.573099</v>
+        <v>12.171539</v>
       </c>
       <c r="J6" t="n">
-        <v>0.733108122349152</v>
+        <v>0.7331081139369475</v>
       </c>
       <c r="K6" t="n">
         <v>3964802048</v>
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>15232606208</v>
+        <v>15052327936</v>
       </c>
       <c r="H7" t="n">
-        <v>24.644445</v>
+        <v>24.023611</v>
       </c>
       <c r="I7" t="n">
-        <v>22.777922</v>
+        <v>22.204107</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08194439334720705</v>
+        <v>0.08194447991085596</v>
       </c>
       <c r="K7" t="n">
         <v>3876600064</v>
@@ -827,16 +827,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>14155071488</v>
+        <v>13834133504</v>
       </c>
       <c r="H8" t="n">
-        <v>30.198198</v>
+        <v>29.378378</v>
       </c>
       <c r="I8" t="n">
-        <v>53.206352</v>
+        <v>51.761906</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.4324324659581998</v>
+        <v>-0.432432453318083</v>
       </c>
       <c r="K8" t="n">
         <v>1798427008</v>
@@ -877,16 +877,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>42492092416</v>
+        <v>43156897792</v>
       </c>
       <c r="H9" t="n">
-        <v>14.336449</v>
+        <v>14.411215</v>
       </c>
       <c r="I9" t="n">
-        <v>11.4307</v>
+        <v>11.490313</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2542056916899227</v>
+        <v>0.2542056078019808</v>
       </c>
       <c r="K9" t="n">
         <v>27395999744</v>
@@ -927,16 +927,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>46582411264</v>
+        <v>46376898560</v>
       </c>
       <c r="H10" t="n">
-        <v>15.403054</v>
+        <v>15.335099</v>
       </c>
       <c r="I10" t="n">
-        <v>12.791353</v>
+        <v>12.734921</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2041770718078062</v>
+        <v>0.2041770027470136</v>
       </c>
       <c r="K10" t="n">
         <v>18179999744</v>
@@ -977,16 +977,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>43114483712</v>
+        <v>42996699136</v>
       </c>
       <c r="H11" t="n">
-        <v>30.012861</v>
+        <v>29.69243</v>
       </c>
       <c r="I11" t="n">
-        <v>25.572601</v>
+        <v>25.258904</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1736334915638813</v>
+        <v>0.175523292697102</v>
       </c>
       <c r="K11" t="n">
         <v>6980192768</v>
@@ -1027,16 +1027,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>35039354880</v>
+        <v>33212184576</v>
       </c>
       <c r="H12" t="n">
-        <v>18.36508</v>
+        <v>17.407408</v>
       </c>
       <c r="I12" t="n">
-        <v>25.243635</v>
+        <v>23.927275</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.2724867080355108</v>
+        <v>-0.2724868168230608</v>
       </c>
       <c r="K12" t="n">
         <v>7648999936</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>9980449792</v>
+        <v>9898964992</v>
       </c>
       <c r="H13" t="n">
-        <v>27.71533</v>
+        <v>27.691175</v>
       </c>
       <c r="I13" t="n">
-        <v>16.580788</v>
+        <v>16.445415</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6715327401809856</v>
+        <v>0.6838234243404622</v>
       </c>
       <c r="K13" t="n">
         <v>17874782208</v>
@@ -1127,16 +1127,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>10763310080</v>
+        <v>10669585408</v>
       </c>
       <c r="H14" t="n">
-        <v>27.02076</v>
+        <v>26.693104</v>
       </c>
       <c r="I14" t="n">
-        <v>27.11458</v>
+        <v>26.878473</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.003460131043888648</v>
+        <v>-0.006896559934784885</v>
       </c>
       <c r="K14" t="n">
         <v>4508700160</v>
@@ -1177,16 +1177,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>27679258624</v>
+        <v>27447175168</v>
       </c>
       <c r="H15" t="n">
-        <v>23.85276</v>
+        <v>23.534397</v>
       </c>
       <c r="I15" t="n">
-        <v>35.090252</v>
+        <v>34.579426</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.3202454060461007</v>
+        <v>-0.3194104205199936</v>
       </c>
       <c r="K15" t="n">
         <v>3020967936</v>
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>12735953920</v>
+        <v>12650175488</v>
       </c>
       <c r="H16" t="n">
-        <v>18.288914</v>
+        <v>17.7926</v>
       </c>
       <c r="I16" t="n">
-        <v>15.524714</v>
+        <v>15.086502</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1780515892273442</v>
+        <v>0.1793721301332807</v>
       </c>
       <c r="K16" t="n">
         <v>8737899520</v>
@@ -1277,16 +1277,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>48239063040</v>
+        <v>49392541696</v>
       </c>
       <c r="H17" t="n">
-        <v>15.990196</v>
+        <v>16.37255</v>
       </c>
       <c r="I17" t="n">
-        <v>19.038912</v>
+        <v>19.494164</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1601307889862614</v>
+        <v>-0.1601306934731851</v>
       </c>
       <c r="K17" t="n">
         <v>27608999936</v>
@@ -1327,16 +1327,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>13204664320</v>
+        <v>13259095040</v>
       </c>
       <c r="H18" t="n">
-        <v>24.019802</v>
+        <v>23.99505</v>
       </c>
       <c r="I18" t="n">
-        <v>13.745043</v>
+        <v>13.730879</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7475246894462242</v>
+        <v>0.7475246850547586</v>
       </c>
       <c r="K18" t="n">
         <v>12396999680</v>
@@ -1377,16 +1377,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>60569001984</v>
+        <v>58688954368</v>
       </c>
       <c r="H19" t="n">
-        <v>22.283873</v>
+        <v>21.547169</v>
       </c>
       <c r="I19" t="n">
-        <v>13.570377</v>
+        <v>13.388409</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6420968260498583</v>
+        <v>0.6093898087517344</v>
       </c>
       <c r="K19" t="n">
         <v>13824000000</v>
@@ -1427,11 +1427,11 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>39200878592</v>
+        <v>38830882816</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>52.729916</v>
+        <v>52.672226</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>28120766464</v>
+        <v>28374890496</v>
       </c>
       <c r="H21" t="n">
-        <v>16.85</v>
+        <v>16.945454</v>
       </c>
       <c r="I21" t="n">
-        <v>17.043678</v>
+        <v>17.14023</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.01136362702933014</v>
+        <v>-0.0113636748164988</v>
       </c>
       <c r="K21" t="n">
         <v>14286153728</v>
@@ -1523,16 +1523,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>20424878080</v>
+        <v>20184430592</v>
       </c>
       <c r="H22" t="n">
-        <v>13.3311</v>
+        <v>12.982775</v>
       </c>
       <c r="I22" t="n">
-        <v>8.361945</v>
+        <v>8.143457</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5942582736432731</v>
+        <v>0.5942584334883823</v>
       </c>
       <c r="K22" t="n">
         <v>9996999680</v>
@@ -1573,16 +1573,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>10255500288</v>
+        <v>10324624384</v>
       </c>
       <c r="H23" t="n">
-        <v>15.755161</v>
+        <v>15.522123</v>
       </c>
       <c r="I23" t="n">
-        <v>17.862877</v>
+        <v>17.598661</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.1179942066443161</v>
+        <v>-0.1179940905731407</v>
       </c>
       <c r="K23" t="n">
         <v>3063608064</v>
@@ -1623,16 +1623,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>12648324096</v>
+        <v>12363736064</v>
       </c>
       <c r="H24" t="n">
-        <v>22.018349</v>
+        <v>21.522934</v>
       </c>
       <c r="I24" t="n">
-        <v>22.588236</v>
+        <v>22.08</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.02522937160741534</v>
+        <v>-0.02522943840579706</v>
       </c>
       <c r="K24" t="n">
         <v>20911613952</v>
@@ -1673,16 +1673,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>47187898368</v>
+        <v>44914147328</v>
       </c>
       <c r="H25" t="n">
-        <v>16.531317</v>
+        <v>15.74359</v>
       </c>
       <c r="I25" t="n">
-        <v>21.558378</v>
+        <v>20.752825</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.2331836374703143</v>
+        <v>-0.2413760536216154</v>
       </c>
       <c r="K25" t="n">
         <v>23834615808</v>
@@ -1723,16 +1723,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>12119044096</v>
+        <v>12236129280</v>
       </c>
       <c r="H26" t="n">
-        <v>12.079852</v>
+        <v>12.19125</v>
       </c>
       <c r="I26" t="n">
-        <v>14.06724</v>
+        <v>13.95279</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.1412777488690034</v>
+        <v>-0.1262500188134417</v>
       </c>
       <c r="K26" t="n">
         <v>11962000384</v>
@@ -1773,16 +1773,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>27972825088</v>
+        <v>27643691008</v>
       </c>
       <c r="H27" t="n">
-        <v>33.63662</v>
+        <v>33.12835</v>
       </c>
       <c r="I27" t="n">
-        <v>25.542246</v>
+        <v>25.120855</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3169014189276855</v>
+        <v>0.3187588559386214</v>
       </c>
       <c r="K27" t="n">
         <v>6889099776</v>
@@ -1823,16 +1823,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>16286342144</v>
+        <v>16105371648</v>
       </c>
       <c r="H28" t="n">
-        <v>55.631252</v>
+        <v>54.89408</v>
       </c>
       <c r="I28" t="n">
-        <v>51.900875</v>
+        <v>51.37318</v>
       </c>
       <c r="J28" t="n">
-        <v>0.07187503100862958</v>
+        <v>0.06853576126687133</v>
       </c>
       <c r="K28" t="n">
         <v>2864519936</v>
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>15852558336</v>
+        <v>15805320192</v>
       </c>
       <c r="H29" t="n">
-        <v>30.57859</v>
+        <v>30.41818</v>
       </c>
       <c r="I29" t="n">
-        <v>28.201681</v>
+        <v>28.117645</v>
       </c>
       <c r="J29" t="n">
-        <v>0.08428252911590617</v>
+        <v>0.08181819636744114</v>
       </c>
       <c r="K29" t="n">
         <v>17012580352</v>
@@ -1923,16 +1923,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>10841841664</v>
+        <v>10935974912</v>
       </c>
       <c r="H30" t="n">
-        <v>22.075684</v>
+        <v>22.275024</v>
       </c>
       <c r="I30" t="n">
-        <v>18.32528</v>
+        <v>17.704088</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2046573913195324</v>
+        <v>0.2581853411483268</v>
       </c>
       <c r="K30" t="n">
         <v>8627823616</v>
@@ -1973,16 +1973,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>37830815744</v>
+        <v>37418459136</v>
       </c>
       <c r="H31" t="n">
-        <v>97.62921</v>
+        <v>97.34090999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>73.6356</v>
+        <v>72.59322</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3258425272558383</v>
+        <v>0.3409091096937151</v>
       </c>
       <c r="K31" t="n">
         <v>3570216960</v>
@@ -2023,16 +2023,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>36735033344</v>
+        <v>36725530624</v>
       </c>
       <c r="H32" t="n">
-        <v>24.009315</v>
+        <v>23.094576</v>
       </c>
       <c r="I32" t="n">
-        <v>17.895832</v>
+        <v>17.240742</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3416149078735207</v>
+        <v>0.3395349225688777</v>
       </c>
       <c r="K32" t="n">
         <v>222577999872</v>
@@ -2073,16 +2073,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>14353559552</v>
+        <v>14188967936</v>
       </c>
       <c r="H33" t="n">
-        <v>18.809523</v>
+        <v>18.589905</v>
       </c>
       <c r="I33" t="n">
-        <v>14.706527</v>
+        <v>14.355672</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2789914981286881</v>
+        <v>0.2949519186562637</v>
       </c>
       <c r="K33" t="n">
         <v>5001800192</v>
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>41639137280</v>
+        <v>41178140672</v>
       </c>
       <c r="H34" t="n">
-        <v>16.078533</v>
+        <v>15.958116</v>
       </c>
       <c r="I34" t="n">
-        <v>17.85465</v>
+        <v>17.72093</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.09947643891087188</v>
+        <v>-0.0994763818828921</v>
       </c>
       <c r="K34" t="n">
         <v>25972000768</v>
@@ -2173,16 +2173,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>12100613120</v>
+        <v>11585162240</v>
       </c>
       <c r="H35" t="n">
-        <v>32.693573</v>
+        <v>31.363022</v>
       </c>
       <c r="I35" t="n">
-        <v>30.52235</v>
+        <v>29.680716</v>
       </c>
       <c r="J35" t="n">
-        <v>0.07113551217386616</v>
+        <v>0.05668010165253423</v>
       </c>
       <c r="K35" t="n">
         <v>2877100032</v>
@@ -2223,16 +2223,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>20489850880</v>
+        <v>20340011008</v>
       </c>
       <c r="H36" t="n">
-        <v>35.32564</v>
+        <v>34.838356</v>
       </c>
       <c r="I36" t="n">
-        <v>34.017284</v>
+        <v>33.526543</v>
       </c>
       <c r="J36" t="n">
-        <v>0.03846150680342397</v>
+        <v>0.03912759511172981</v>
       </c>
       <c r="K36" t="n">
         <v>16410267648</v>
@@ -2273,16 +2273,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>48528134144</v>
+        <v>46751735808</v>
       </c>
       <c r="H37" t="n">
-        <v>45.8118</v>
+        <v>43.904495</v>
       </c>
       <c r="I37" t="n">
-        <v>27.181665</v>
+        <v>26.050001</v>
       </c>
       <c r="J37" t="n">
-        <v>0.6853934444413174</v>
+        <v>0.6853932174513158</v>
       </c>
       <c r="K37" t="n">
         <v>38103998464</v>
@@ -2323,16 +2323,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>29737838592</v>
+        <v>28141596672</v>
       </c>
       <c r="H38" t="n">
-        <v>56.130722</v>
+        <v>52.385437</v>
       </c>
       <c r="I38" t="n">
-        <v>57.896633</v>
+        <v>54.975285</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.03050110012442353</v>
+        <v>-0.04710931466749102</v>
       </c>
       <c r="K38" t="n">
         <v>10587199488</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>22169534464</v>
+        <v>21708881920</v>
       </c>
       <c r="H39" t="n">
-        <v>17.833332</v>
+        <v>17.090908</v>
       </c>
       <c r="I39" t="n">
-        <v>13.375</v>
+        <v>13.055554</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3333332336448598</v>
+        <v>0.3090909815087126</v>
       </c>
       <c r="K39" t="n">
         <v>43681132544</v>
@@ -2423,16 +2423,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>14114323456</v>
+        <v>14844821504</v>
       </c>
       <c r="H40" t="n">
-        <v>11.420708</v>
+        <v>11.757536</v>
       </c>
       <c r="I40" t="n">
-        <v>14.100324</v>
+        <v>14.516182</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.1900393210822674</v>
+        <v>-0.1900393643452528</v>
       </c>
       <c r="K40" t="n">
         <v>6447000064</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>20895389696</v>
+        <v>19759730688</v>
       </c>
       <c r="H41" t="n">
-        <v>17.077066</v>
+        <v>16.216515</v>
       </c>
       <c r="I41" t="n">
-        <v>14.041731</v>
+        <v>13.659969</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2161653004177333</v>
+        <v>0.1871560616279584</v>
       </c>
       <c r="K41" t="n">
         <v>15559227392</v>
@@ -2523,16 +2523,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>36475260928</v>
+        <v>36957421568</v>
       </c>
       <c r="H42" t="n">
-        <v>7.3081555</v>
+        <v>7.4067893</v>
       </c>
       <c r="I42" t="n">
-        <v>7.463388</v>
+        <v>7.5620465</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.02079920004158975</v>
+        <v>-0.02053110887376852</v>
       </c>
       <c r="K42" t="n">
         <v>55222001664</v>
@@ -2573,16 +2573,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>21588543488</v>
+        <v>21859069952</v>
       </c>
       <c r="H43" t="n">
-        <v>26.253265</v>
+        <v>26.513021</v>
       </c>
       <c r="I43" t="n">
-        <v>20.23139</v>
+        <v>20.48491</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2976500873148111</v>
+        <v>0.2942708071453572</v>
       </c>
       <c r="K43" t="n">
         <v>2641799936</v>
@@ -2623,16 +2623,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>15871010816</v>
+        <v>15514266624</v>
       </c>
       <c r="H44" t="n">
-        <v>106.27777</v>
+        <v>105.416664</v>
       </c>
       <c r="I44" t="n">
-        <v>63.766663</v>
+        <v>63.25</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6666666405297075</v>
+        <v>0.6666666245059287</v>
       </c>
       <c r="K44" t="n">
         <v>12345235456</v>
@@ -2673,16 +2673,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>34016401408</v>
+        <v>34430324736</v>
       </c>
       <c r="H45" t="n">
-        <v>27.0679</v>
+        <v>27.080744</v>
       </c>
       <c r="I45" t="n">
-        <v>28.66013</v>
+        <v>28.49673</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.05555557493982044</v>
+        <v>-0.04968942050544045</v>
       </c>
       <c r="K45" t="n">
         <v>233447899136</v>
@@ -2723,16 +2723,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>22908944384</v>
+        <v>22926198784</v>
       </c>
       <c r="H46" t="n">
-        <v>16.192074</v>
+        <v>16.223927</v>
       </c>
       <c r="I46" t="n">
-        <v>13.723515</v>
+        <v>13.666667</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1798780414492935</v>
+        <v>0.1871165808020345</v>
       </c>
       <c r="K46" t="n">
         <v>7208000000</v>
@@ -2771,16 +2771,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>14723607552</v>
+        <v>15053842432</v>
       </c>
       <c r="H47" t="n">
-        <v>18.46319</v>
+        <v>18.820553</v>
       </c>
       <c r="I47" t="n">
-        <v>16.513031</v>
+        <v>16.832647</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1180981856086869</v>
+        <v>0.1180982408767912</v>
       </c>
       <c r="K47" t="n">
         <v>7104000000</v>
@@ -2821,16 +2821,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>9966682112</v>
+        <v>9938878464</v>
       </c>
       <c r="H48" t="n">
-        <v>17.095379</v>
+        <v>16.979136</v>
       </c>
       <c r="I48" t="n">
-        <v>2.9458141</v>
+        <v>2.9257834</v>
       </c>
       <c r="J48" t="n">
-        <v>4.803278285618906</v>
+        <v>4.803278533879166</v>
       </c>
       <c r="K48" t="n">
         <v>6947642880</v>
@@ -2871,16 +2871,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>33049751552</v>
+        <v>33386745856</v>
       </c>
       <c r="H49" t="n">
-        <v>13.726167</v>
+        <v>13.523327</v>
       </c>
       <c r="I49" t="n">
-        <v>13.561123</v>
+        <v>13.360722</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0121703785151126</v>
+        <v>0.0121703752237341</v>
       </c>
       <c r="K49" t="n">
         <v>20486000640</v>
@@ -2921,11 +2921,11 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>17027980288</v>
+        <v>16604188672</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>25.066513</v>
+        <v>24.44266</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
@@ -2967,16 +2967,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>28987944960</v>
+        <v>27585861632</v>
       </c>
       <c r="H51" t="n">
-        <v>42.195175</v>
+        <v>40.158195</v>
       </c>
       <c r="I51" t="n">
-        <v>47.33608</v>
+        <v>46.02001</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.1086043669015263</v>
+        <v>-0.127375352591188</v>
       </c>
       <c r="K51" t="n">
         <v>7684774912</v>
@@ -3017,16 +3017,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>13419602944</v>
+        <v>13588589568</v>
       </c>
       <c r="H52" t="n">
-        <v>33.088238</v>
+        <v>32.789215</v>
       </c>
       <c r="I52" t="n">
-        <v>16.544119</v>
+        <v>16.394608</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0.9999999390043357</v>
       </c>
       <c r="K52" t="n">
         <v>4045700096</v>
@@ -3067,16 +3067,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>43782868992</v>
+        <v>43889233920</v>
       </c>
       <c r="H53" t="n">
-        <v>28.477985</v>
+        <v>28.232704</v>
       </c>
       <c r="I53" t="n">
-        <v>26.022987</v>
+        <v>25.798851</v>
       </c>
       <c r="J53" t="n">
-        <v>0.09433959291452587</v>
+        <v>0.09433958899952555</v>
       </c>
       <c r="K53" t="n">
         <v>4646958080</v>
@@ -3117,16 +3117,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>10011424768</v>
+        <v>10082496512</v>
       </c>
       <c r="H54" t="n">
-        <v>22.577093</v>
+        <v>22.799107</v>
       </c>
       <c r="I54" t="n">
-        <v>20.918367</v>
+        <v>20.844898</v>
       </c>
       <c r="J54" t="n">
-        <v>0.07929519546148134</v>
+        <v>0.09374999100499304</v>
       </c>
       <c r="K54" t="n">
         <v>7740000256</v>
@@ -3167,16 +3167,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>21178664960</v>
+        <v>20632111104</v>
       </c>
       <c r="H55" t="n">
-        <v>20.41096</v>
+        <v>19.87619</v>
       </c>
       <c r="I55" t="n">
-        <v>13.435527</v>
+        <v>13.173128</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5191782205491455</v>
+        <v>0.5088436095056543</v>
       </c>
       <c r="K55" t="n">
         <v>4171324928</v>
@@ -3217,16 +3217,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>17910894592</v>
+        <v>18124574720</v>
       </c>
       <c r="H56" t="n">
-        <v>11.229665</v>
+        <v>11.339714</v>
       </c>
       <c r="I56" t="n">
-        <v>10.072962</v>
+        <v>10.171675</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1148324594096553</v>
+        <v>0.1148325128358898</v>
       </c>
       <c r="K56" t="n">
         <v>6232000000</v>
@@ -3267,16 +3267,16 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>10469496832</v>
+        <v>10285346816</v>
       </c>
       <c r="H57" t="n">
-        <v>35.22287</v>
+        <v>34.5706</v>
       </c>
       <c r="I57" t="n">
-        <v>30.857386</v>
+        <v>30.344652</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1414729037644342</v>
+        <v>0.1392650012924848</v>
       </c>
       <c r="K57" t="n">
         <v>2227200000</v>
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>19524796416</v>
+        <v>19469408256</v>
       </c>
       <c r="H58" t="n">
-        <v>43.656277</v>
+        <v>43.679626</v>
       </c>
       <c r="I58" t="n">
-        <v>43.80389</v>
+        <v>43.679626</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.00336986053065147</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>3305452032</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>21747281920</v>
+        <v>21805580288</v>
       </c>
       <c r="H59" t="n">
-        <v>19.991426</v>
+        <v>20.045017</v>
       </c>
       <c r="I59" t="n">
-        <v>17.662878</v>
+        <v>17.710226</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1318328757068923</v>
+        <v>0.131832930872819</v>
       </c>
       <c r="K59" t="n">
         <v>12364399616</v>
@@ -3417,16 +3417,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>10859858944</v>
+        <v>10864592896</v>
       </c>
       <c r="H60" t="n">
-        <v>229.4</v>
+        <v>229.49998</v>
       </c>
       <c r="I60" t="n">
-        <v>31.14027</v>
+        <v>31.153845</v>
       </c>
       <c r="J60" t="n">
-        <v>6.366667019907021</v>
+        <v>6.36666629753085</v>
       </c>
       <c r="K60" t="n">
         <v>1851699968</v>
@@ -3467,16 +3467,16 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>16795435008</v>
+        <v>15699178496</v>
       </c>
       <c r="H61" t="n">
-        <v>17.395962</v>
+        <v>16.256529</v>
       </c>
       <c r="I61" t="n">
-        <v>17.614779</v>
+        <v>16.639936</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.01242235284359783</v>
+        <v>-0.02304137467836409</v>
       </c>
       <c r="K61" t="n">
         <v>5124803072</v>
@@ -3517,16 +3517,16 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>20508975104</v>
+        <v>20647077888</v>
       </c>
       <c r="H62" t="n">
-        <v>15.948396</v>
+        <v>15.728352</v>
       </c>
       <c r="I62" t="n">
-        <v>15.431849</v>
+        <v>15.197706</v>
       </c>
       <c r="J62" t="n">
-        <v>0.03347278735036885</v>
+        <v>0.03491619064087703</v>
       </c>
       <c r="K62" t="n">
         <v>13772123136</v>
@@ -3567,16 +3567,16 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>17057650688</v>
+        <v>16894756864</v>
       </c>
       <c r="H63" t="n">
-        <v>64.257576</v>
+        <v>61.59848</v>
       </c>
       <c r="I63" t="n">
-        <v>22.98645</v>
+        <v>22.035229</v>
       </c>
       <c r="J63" t="n">
-        <v>1.795454539522197</v>
+        <v>1.795454496978452</v>
       </c>
       <c r="K63" t="n">
         <v>3095362048</v>
@@ -3617,16 +3617,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>13841430528</v>
+        <v>13910730752</v>
       </c>
       <c r="H64" t="n">
-        <v>63.162395</v>
+        <v>63.033897</v>
       </c>
       <c r="I64" t="n">
-        <v>62.100838</v>
+        <v>62.504196</v>
       </c>
       <c r="J64" t="n">
-        <v>0.01709408494616449</v>
+        <v>0.008474647046095907</v>
       </c>
       <c r="K64" t="n">
         <v>589635968</v>
@@ -3667,16 +3667,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>12297115648</v>
+        <v>11952208896</v>
       </c>
       <c r="H65" t="n">
-        <v>18.844156</v>
+        <v>18.38961</v>
       </c>
       <c r="I65" t="n">
-        <v>16.678162</v>
+        <v>16.275862</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1298700660180661</v>
+        <v>0.1298701107197886</v>
       </c>
       <c r="K65" t="n">
         <v>334260011008</v>
@@ -3717,11 +3717,11 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>21765246976</v>
+        <v>21308495872</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>75.912285</v>
+        <v>75.29824000000001</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
@@ -3763,16 +3763,16 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>13723661312</v>
+        <v>13800182784</v>
       </c>
       <c r="H67" t="n">
-        <v>122.745895</v>
+        <v>123.42126</v>
       </c>
       <c r="I67" t="n">
-        <v>99.17219</v>
+        <v>103.804634</v>
       </c>
       <c r="J67" t="n">
-        <v>0.2377047940556722</v>
+        <v>0.1889763996470524</v>
       </c>
       <c r="K67" t="n">
         <v>885152000</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>9091296256</v>
+        <v>8898809856</v>
       </c>
       <c r="H68" t="n">
-        <v>120.32608</v>
+        <v>116</v>
       </c>
       <c r="I68" t="n">
-        <v>102.49999</v>
+        <v>98.81480999999999</v>
       </c>
       <c r="J68" t="n">
-        <v>0.1739130901378625</v>
+        <v>0.1739131006779249</v>
       </c>
       <c r="K68" t="n">
         <v>1451963008</v>
@@ -3863,16 +3863,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>14402953216</v>
+        <v>14653202432</v>
       </c>
       <c r="H69" t="n">
-        <v>29.487654</v>
+        <v>29.634146</v>
       </c>
       <c r="I69" t="n">
-        <v>31.846666</v>
+        <v>32.399998</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.07407406477023371</v>
+        <v>-0.08536580773863001</v>
       </c>
       <c r="K69" t="n">
         <v>1776812032</v>
@@ -3913,16 +3913,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>23131201536</v>
+        <v>22775216128</v>
       </c>
       <c r="H70" t="n">
-        <v>56.51529</v>
+        <v>55.58258</v>
       </c>
       <c r="I70" t="n">
-        <v>58.70941</v>
+        <v>57.80588</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.03737254385625743</v>
+        <v>-0.0384614852329902</v>
       </c>
       <c r="K70" t="n">
         <v>7516222976</v>
@@ -3963,16 +3963,16 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>28859510784</v>
+        <v>28047935488</v>
       </c>
       <c r="H71" t="n">
-        <v>26.78438</v>
+        <v>25.976725</v>
       </c>
       <c r="I71" t="n">
-        <v>28.897356</v>
+        <v>28.014343</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.07312004600005617</v>
+        <v>-0.0727348130206017</v>
       </c>
       <c r="K71" t="n">
         <v>15638715392</v>
@@ -4013,16 +4013,16 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>12768758784</v>
+        <v>12673071104</v>
       </c>
       <c r="H72" t="n">
-        <v>24.7115</v>
+        <v>24.529297</v>
       </c>
       <c r="I72" t="n">
-        <v>26.520918</v>
+        <v>26.274057</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.0682260697009055</v>
+        <v>-0.06640618919263208</v>
       </c>
       <c r="K72" t="n">
         <v>5669100032</v>
@@ -4063,16 +4063,16 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>31796015104</v>
+        <v>33655396352</v>
       </c>
       <c r="H73" t="n">
-        <v>26.81579</v>
+        <v>28.38421</v>
       </c>
       <c r="I73" t="n">
-        <v>20.218254</v>
+        <v>21.400793</v>
       </c>
       <c r="J73" t="n">
-        <v>0.3263158134228603</v>
+        <v>0.3263158052133863</v>
       </c>
       <c r="K73" t="n">
         <v>7103623168</v>
@@ -4113,16 +4113,16 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>31733178368</v>
+        <v>31714701312</v>
       </c>
       <c r="H74" t="n">
-        <v>50.40704</v>
+        <v>49.270058</v>
       </c>
       <c r="I74" t="n">
-        <v>27.373007</v>
+        <v>26.75558</v>
       </c>
       <c r="J74" t="n">
-        <v>0.8414871263504224</v>
+        <v>0.8414871963156845</v>
       </c>
       <c r="K74" t="n">
         <v>5840200192</v>
@@ -4163,16 +4163,16 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>12238544896</v>
+        <v>12142620672</v>
       </c>
       <c r="H75" t="n">
-        <v>31.092783</v>
+        <v>30.917524</v>
       </c>
       <c r="I75" t="n">
-        <v>30.775509</v>
+        <v>30.60204</v>
       </c>
       <c r="J75" t="n">
-        <v>0.01030930146435605</v>
+        <v>0.01030924735736582</v>
       </c>
       <c r="K75" t="n">
         <v>1534018944</v>
@@ -4213,16 +4213,16 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>25849145344</v>
+        <v>25644492800</v>
       </c>
       <c r="H76" t="n">
-        <v>24.691729</v>
+        <v>23.962406</v>
       </c>
       <c r="I76" t="n">
-        <v>38.863903</v>
+        <v>37.715977</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.3646616244384925</v>
+        <v>-0.3646616657974948</v>
       </c>
       <c r="K76" t="n">
         <v>3044763904</v>
@@ -4263,16 +4263,16 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>16591574016</v>
+        <v>16433137664</v>
       </c>
       <c r="H77" t="n">
-        <v>26.57454</v>
+        <v>26.188286</v>
       </c>
       <c r="I77" t="n">
-        <v>23.679104</v>
+        <v>23.354479</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1222781064688934</v>
+        <v>0.1213389089090791</v>
       </c>
       <c r="K77" t="n">
         <v>3973472000</v>
@@ -4313,16 +4313,16 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>18499299328</v>
+        <v>18274828288</v>
       </c>
       <c r="H78" t="n">
-        <v>21.530546</v>
+        <v>21.194534</v>
       </c>
       <c r="I78" t="n">
-        <v>44.491695</v>
+        <v>43.797344</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.5160771914848378</v>
+        <v>-0.5160771849544119</v>
       </c>
       <c r="K78" t="n">
         <v>1887956992</v>
@@ -4363,16 +4363,16 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>13688760320</v>
+        <v>13141441536</v>
       </c>
       <c r="H79" t="n">
-        <v>32.066</v>
+        <v>30.859362</v>
       </c>
       <c r="I79" t="n">
-        <v>25.22404</v>
+        <v>24.033428</v>
       </c>
       <c r="J79" t="n">
-        <v>0.2712475876187956</v>
+        <v>0.2840183264742757</v>
       </c>
       <c r="K79" t="n">
         <v>3238871040</v>
@@ -4411,16 +4411,16 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>27368361984</v>
+        <v>26948964352</v>
       </c>
       <c r="H80" t="n">
-        <v>27.277437</v>
+        <v>26.53391</v>
       </c>
       <c r="I80" t="n">
-        <v>15.4052925</v>
+        <v>14.985376</v>
       </c>
       <c r="J80" t="n">
-        <v>0.7706536243956419</v>
+        <v>0.7706536025522481</v>
       </c>
       <c r="K80" t="n">
         <v>14017999872</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>16439584768</v>
+        <v>16453157888</v>
       </c>
       <c r="H81" t="n">
-        <v>19.760195</v>
+        <v>19.776508</v>
       </c>
       <c r="I81" t="n">
-        <v>22.51487</v>
+        <v>22.533457</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.122349140812272</v>
+        <v>-0.1223491362199772</v>
       </c>
       <c r="K81" t="n">
         <v>11273140224</v>
@@ -4511,16 +4511,16 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>30702882816</v>
+        <v>30505660416</v>
       </c>
       <c r="H82" t="n">
-        <v>30.119566</v>
+        <v>29.936958</v>
       </c>
       <c r="I82" t="n">
-        <v>28.985355</v>
+        <v>28.809624</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03913048503287264</v>
+        <v>0.03913046556942223</v>
       </c>
       <c r="K82" t="n">
         <v>3393270016</v>
@@ -4561,16 +4561,16 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>18653095936</v>
+        <v>18639884288</v>
       </c>
       <c r="H83" t="n">
-        <v>28.65843</v>
+        <v>28.571428</v>
       </c>
       <c r="I83" t="n">
-        <v>21.084417</v>
+        <v>21.038961</v>
       </c>
       <c r="J83" t="n">
-        <v>0.3592232595285894</v>
+        <v>0.3580246667123914</v>
       </c>
       <c r="K83" t="n">
         <v>3024655872</v>
@@ -4611,16 +4611,16 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>13584743424</v>
+        <v>13100608512</v>
       </c>
       <c r="H84" t="n">
-        <v>41.553005</v>
+        <v>39.362053</v>
       </c>
       <c r="I84" t="n">
-        <v>34.34598</v>
+        <v>32.606144</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2098360565050117</v>
+        <v>0.207197422669789</v>
       </c>
       <c r="K84" t="n">
         <v>3419326976</v>
@@ -4661,16 +4661,16 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>11176816640</v>
+        <v>10731831296</v>
       </c>
       <c r="H85" t="n">
-        <v>19.011866</v>
+        <v>18.24293</v>
       </c>
       <c r="I85" t="n">
-        <v>15.4395075</v>
+        <v>15.1959305</v>
       </c>
       <c r="J85" t="n">
-        <v>0.2313777495817144</v>
+        <v>0.2005141771344638</v>
       </c>
       <c r="K85" t="n">
         <v>2321747968</v>
@@ -4711,16 +4711,16 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>36840091648</v>
+        <v>37166301184</v>
       </c>
       <c r="H86" t="n">
-        <v>60.06928</v>
+        <v>60.601177</v>
       </c>
       <c r="I86" t="n">
-        <v>41.290558</v>
+        <v>41.656178</v>
       </c>
       <c r="J86" t="n">
-        <v>0.4547945803977753</v>
+        <v>0.4547944604999528</v>
       </c>
       <c r="K86" t="n">
         <v>1928926976</v>
@@ -4761,16 +4761,16 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>16099561472</v>
+        <v>16257160192</v>
       </c>
       <c r="H87" t="n">
-        <v>15.076336</v>
+        <v>15.048346</v>
       </c>
       <c r="I87" t="n">
-        <v>9.57189</v>
+        <v>9.554119</v>
       </c>
       <c r="J87" t="n">
-        <v>0.5750636499165787</v>
+        <v>0.5750636976575234</v>
       </c>
       <c r="K87" t="n">
         <v>13633999872</v>
@@ -4811,16 +4811,16 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>29877590016</v>
+        <v>29970253824</v>
       </c>
       <c r="H88" t="n">
-        <v>14.0623045</v>
+        <v>14.105919</v>
       </c>
       <c r="I88" t="n">
-        <v>12.367123</v>
+        <v>12.4054785</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1370716131795569</v>
+        <v>0.1370717381034516</v>
       </c>
       <c r="K88" t="n">
         <v>7992999936</v>
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>11485251584</v>
+        <v>11571568640</v>
       </c>
       <c r="H89" t="n">
-        <v>14.59355</v>
+        <v>14.619355</v>
       </c>
       <c r="I89" t="n">
-        <v>14.407643</v>
+        <v>14.433121</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01290335969596135</v>
+        <v>0.01290323832246676</v>
       </c>
       <c r="K89" t="n">
         <v>3083000064</v>
@@ -4907,16 +4907,16 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>22186840064</v>
+        <v>21532416000</v>
       </c>
       <c r="H90" t="n">
-        <v>26.136564</v>
+        <v>24.889868</v>
       </c>
       <c r="I90" t="n">
-        <v>21.341728</v>
+        <v>20.323742</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2246695300399293</v>
+        <v>0.224669551502868</v>
       </c>
       <c r="K90" t="n">
         <v>26073999360</v>
@@ -4957,16 +4957,16 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>26302636032</v>
+        <v>25475328000</v>
       </c>
       <c r="H91" t="n">
-        <v>11.40535</v>
+        <v>11.09165</v>
       </c>
       <c r="I91" t="n">
-        <v>23.587234</v>
+        <v>23.174469</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.5164608957540338</v>
+        <v>-0.5213849344293497</v>
       </c>
       <c r="K91" t="n">
         <v>16300000256</v>
@@ -5007,16 +5007,16 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>26302636032</v>
+        <v>25475328000</v>
       </c>
       <c r="H92" t="n">
-        <v>12.703094</v>
+        <v>12.266803</v>
       </c>
       <c r="I92" t="n">
-        <v>16.517426</v>
+        <v>16.147453</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.2309277486697988</v>
+        <v>-0.2403258272372739</v>
       </c>
       <c r="K92" t="n">
         <v>16300000256</v>
@@ -5057,16 +5057,16 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>15075582976</v>
+        <v>14857948160</v>
       </c>
       <c r="H93" t="n">
-        <v>19.61069</v>
+        <v>19.090908</v>
       </c>
       <c r="I93" t="n">
-        <v>9.805345000000001</v>
+        <v>9.618321</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0.9848482910894738</v>
       </c>
       <c r="K93" t="n">
         <v>19518115840</v>
@@ -5107,13 +5107,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>11997461504</v>
+        <v>11751245824</v>
       </c>
       <c r="H94" t="n">
-        <v>33.5</v>
+        <v>31.5875</v>
       </c>
       <c r="I94" t="n">
-        <v>-2680</v>
+        <v>-2527</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
@@ -5155,16 +5155,16 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>45696139264</v>
+        <v>45563318272</v>
       </c>
       <c r="H95" t="n">
-        <v>29.27127</v>
+        <v>29.222221</v>
       </c>
       <c r="I95" t="n">
-        <v>31.821716</v>
+        <v>31.729221</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.0801479719069832</v>
+        <v>-0.0790123400760453</v>
       </c>
       <c r="K95" t="n">
         <v>6758245888</v>
@@ -5205,16 +5205,16 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>19538321408</v>
+        <v>19904880640</v>
       </c>
       <c r="H96" t="n">
-        <v>15.895257</v>
+        <v>16.177559</v>
       </c>
       <c r="I96" t="n">
-        <v>19.558758</v>
+        <v>19.89386</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.1873074455954719</v>
+        <v>-0.1868064317332082</v>
       </c>
       <c r="K96" t="n">
         <v>6420008960</v>
@@ -5255,16 +5255,16 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>34059528192</v>
+        <v>33776459776</v>
       </c>
       <c r="H97" t="n">
-        <v>15.286884</v>
+        <v>15.148306</v>
       </c>
       <c r="I97" t="n">
-        <v>15.974303</v>
+        <v>15.3104925</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.04303280086774364</v>
+        <v>-0.0105931602134941</v>
       </c>
       <c r="K97" t="n">
         <v>19967000576</v>
@@ -5305,16 +5305,16 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>10905511936</v>
+        <v>9638111232</v>
       </c>
       <c r="H98" t="n">
-        <v>30.940632</v>
+        <v>27.331112</v>
       </c>
       <c r="I98" t="n">
-        <v>20.313034</v>
+        <v>20.007307</v>
       </c>
       <c r="J98" t="n">
-        <v>0.5231910703246005</v>
+        <v>0.3660565112536134</v>
       </c>
       <c r="K98" t="n">
         <v>4411654144</v>
@@ -5355,16 +5355,16 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>17684643840</v>
+        <v>17940518912</v>
       </c>
       <c r="H99" t="n">
-        <v>14.809278</v>
+        <v>14.943006</v>
       </c>
       <c r="I99" t="n">
-        <v>20.52143</v>
+        <v>20.6</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.2783505827810244</v>
+        <v>-0.274611359223301</v>
       </c>
       <c r="K99" t="n">
         <v>3646881280</v>
@@ -5405,16 +5405,16 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>11871068160</v>
+        <v>11585935360</v>
       </c>
       <c r="H100" t="n">
-        <v>11.61252</v>
+        <v>11.4424</v>
       </c>
       <c r="I100" t="n">
-        <v>10.815498</v>
+        <v>10.555719</v>
       </c>
       <c r="J100" t="n">
-        <v>0.07369258447461235</v>
+        <v>0.08400005722016646</v>
       </c>
       <c r="K100" t="n">
         <v>5883393024</v>
@@ -5455,16 +5455,16 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>46673747968</v>
+        <v>45580779520</v>
       </c>
       <c r="H101" t="n">
-        <v>24.791159</v>
+        <v>24.155075</v>
       </c>
       <c r="I101" t="n">
-        <v>23.172169</v>
+        <v>22.60057</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0698678660594958</v>
+        <v>0.0687816723206538</v>
       </c>
       <c r="K101" t="n">
         <v>17481000960</v>
@@ -5505,16 +5505,16 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>11831623680</v>
+        <v>12135062528</v>
       </c>
       <c r="H102" t="n">
-        <v>23.181818</v>
+        <v>23.443115</v>
       </c>
       <c r="I102" t="n">
-        <v>18.658537</v>
+        <v>19.097563</v>
       </c>
       <c r="J102" t="n">
-        <v>0.2424242050703118</v>
+        <v>0.2275448443343266</v>
       </c>
       <c r="K102" t="n">
         <v>24285999104</v>
@@ -5555,16 +5555,16 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>37061234688</v>
+        <v>37072482304</v>
       </c>
       <c r="H103" t="n">
-        <v>11.971844</v>
+        <v>11.950046</v>
       </c>
       <c r="I103" t="n">
-        <v>11.353144</v>
+        <v>11.332473</v>
       </c>
       <c r="J103" t="n">
-        <v>0.05449591760661199</v>
+        <v>0.05449587217194352</v>
       </c>
       <c r="K103" t="n">
         <v>27441999872</v>
@@ -5605,11 +5605,11 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>10492198912</v>
+        <v>10549693440</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>16.88939</v>
+        <v>16.8307</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
@@ -5651,16 +5651,16 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>38807818240</v>
+        <v>38446772224</v>
       </c>
       <c r="H105" t="n">
-        <v>69.86245</v>
+        <v>69.41703</v>
       </c>
       <c r="I105" t="n">
-        <v>74.75934599999999</v>
+        <v>74.28270999999999</v>
       </c>
       <c r="J105" t="n">
-        <v>-0.06550212464405447</v>
+        <v>-0.06550218752116066</v>
       </c>
       <c r="K105" t="n">
         <v>4289297920</v>
@@ -5701,16 +5701,16 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>10932165632</v>
+        <v>11040015360</v>
       </c>
       <c r="H106" t="n">
-        <v>24.041668</v>
+        <v>23.828249</v>
       </c>
       <c r="I106" t="n">
-        <v>23.73734</v>
+        <v>23.488922</v>
       </c>
       <c r="J106" t="n">
-        <v>0.01282064460466081</v>
+        <v>0.01444625683545642</v>
       </c>
       <c r="K106" t="n">
         <v>2375288064</v>
@@ -5751,16 +5751,16 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>14708473856</v>
+        <v>14454648832</v>
       </c>
       <c r="H107" t="n">
-        <v>35.27656</v>
+        <v>34.615517</v>
       </c>
       <c r="I107" t="n">
-        <v>31.037094</v>
+        <v>30.455492</v>
       </c>
       <c r="J107" t="n">
-        <v>0.136593522576566</v>
+        <v>0.1365935904105571</v>
       </c>
       <c r="K107" t="n">
         <v>2480866048</v>
@@ -5799,16 +5799,16 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>23128125440</v>
+        <v>22911846400</v>
       </c>
       <c r="H108" t="n">
-        <v>28.280052</v>
+        <v>27.319038</v>
       </c>
       <c r="I108" t="n">
-        <v>24.561514</v>
+        <v>23.726864</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1513969375014912</v>
+        <v>0.1513969144847798</v>
       </c>
       <c r="K108" t="n">
         <v>5626399744</v>
@@ -5849,16 +5849,16 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>13250816000</v>
+        <v>13026054144</v>
       </c>
       <c r="H109" t="n">
-        <v>17.528807</v>
+        <v>17.235418</v>
       </c>
       <c r="I109" t="n">
-        <v>11.305906</v>
+        <v>10.785004</v>
       </c>
       <c r="J109" t="n">
-        <v>0.5504115282755757</v>
+        <v>0.5980910160070407</v>
       </c>
       <c r="K109" t="n">
         <v>8089820160</v>
@@ -5899,16 +5899,16 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>16508645376</v>
+        <v>16434441216</v>
       </c>
       <c r="H110" t="n">
-        <v>19.985815</v>
+        <v>19.304966</v>
       </c>
       <c r="I110" t="n">
-        <v>13.76873</v>
+        <v>13.299675</v>
       </c>
       <c r="J110" t="n">
-        <v>0.4515365614693585</v>
+        <v>0.4515366728886232</v>
       </c>
       <c r="K110" t="n">
         <v>4584995840</v>
@@ -5949,16 +5949,16 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>13834859520</v>
+        <v>13728779264</v>
       </c>
       <c r="H111" t="n">
-        <v>27.932283</v>
+        <v>27.634068</v>
       </c>
       <c r="I111" t="n">
-        <v>27.203987</v>
+        <v>26.871164</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02677166402115994</v>
+        <v>0.02839117799288493</v>
       </c>
       <c r="K111" t="n">
         <v>3699599872</v>
@@ -5999,16 +5999,16 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>17674661888</v>
+        <v>17626847232</v>
       </c>
       <c r="H112" t="n">
-        <v>37.91282</v>
+        <v>37.411762</v>
       </c>
       <c r="I112" t="n">
-        <v>22.234587</v>
+        <v>21.996992</v>
       </c>
       <c r="J112" t="n">
-        <v>0.7051281411253558</v>
+        <v>0.7007671776213769</v>
       </c>
       <c r="K112" t="n">
         <v>11835288576</v>
@@ -6049,16 +6049,16 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>14841224192</v>
+        <v>14383046656</v>
       </c>
       <c r="H113" t="n">
-        <v>26.909794</v>
+        <v>25.83591</v>
       </c>
       <c r="I113" t="n">
-        <v>19.359085</v>
+        <v>18.586527</v>
       </c>
       <c r="J113" t="n">
-        <v>0.3900343947040885</v>
+        <v>0.3900342974241502</v>
       </c>
       <c r="K113" t="n">
         <v>24676200448</v>
@@ -6099,16 +6099,16 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>33084766208</v>
+        <v>32355518464</v>
       </c>
       <c r="H114" t="n">
-        <v>22.986666</v>
+        <v>21.56</v>
       </c>
       <c r="I114" t="n">
-        <v>14.131147</v>
+        <v>13.254098</v>
       </c>
       <c r="J114" t="n">
-        <v>0.6266666817633415</v>
+        <v>0.6266667109297062</v>
       </c>
       <c r="K114" t="n">
         <v>15141000192</v>
@@ -6149,16 +6149,16 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>41080991744</v>
+        <v>41117487104</v>
       </c>
       <c r="H115" t="n">
-        <v>16.93844</v>
+        <v>16.628414</v>
       </c>
       <c r="I115" t="n">
-        <v>16.228046</v>
+        <v>15.952818</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04377569548422522</v>
+        <v>0.04234963377630208</v>
       </c>
       <c r="K115" t="n">
         <v>19718000640</v>
@@ -6199,16 +6199,16 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>14830689280</v>
+        <v>14647845888</v>
       </c>
       <c r="H116" t="n">
-        <v>26.707317</v>
+        <v>26.195122</v>
       </c>
       <c r="I116" t="n">
-        <v>31.285715</v>
+        <v>30.685715</v>
       </c>
       <c r="J116" t="n">
-        <v>-0.1463414852433451</v>
+        <v>-0.1463414816959617</v>
       </c>
       <c r="K116" t="n">
         <v>2094828032</v>
@@ -6249,16 +6249,16 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>29835788288</v>
+        <v>28887494656</v>
       </c>
       <c r="H117" t="n">
-        <v>19.584</v>
+        <v>19.064516</v>
       </c>
       <c r="I117" t="n">
-        <v>27.818182</v>
+        <v>26.863636</v>
       </c>
       <c r="J117" t="n">
-        <v>-0.2960000046013072</v>
+        <v>-0.2903225758419299</v>
       </c>
       <c r="K117" t="n">
         <v>6073800192</v>
@@ -6299,16 +6299,16 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>9972166656</v>
+        <v>10014106624</v>
       </c>
       <c r="H118" t="n">
-        <v>22.349348</v>
+        <v>22.416306</v>
       </c>
       <c r="I118" t="n">
-        <v>23.843452</v>
+        <v>23.128132</v>
       </c>
       <c r="J118" t="n">
-        <v>-0.06266307412198535</v>
+        <v>-0.03077749642729477</v>
       </c>
       <c r="K118" t="n">
         <v>1723392000</v>
@@ -6349,22 +6349,22 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>43306020864</v>
+        <v>43438555136</v>
       </c>
       <c r="H119" t="n">
-        <v>16.586294</v>
+        <v>16.621826</v>
       </c>
       <c r="I119" t="n">
-        <v>14.2685585</v>
+        <v>14.299127</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1624365558721297</v>
+        <v>0.1624364200695607</v>
       </c>
       <c r="K119" t="n">
         <v>147000000512</v>
       </c>
       <c r="L119" t="n">
-        <v>2998874880</v>
+        <v>2915749888</v>
       </c>
     </row>
     <row r="120">
@@ -6399,16 +6399,16 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>23263014912</v>
+        <v>23213985792</v>
       </c>
       <c r="H120" t="n">
-        <v>30.898453</v>
+        <v>30.479029</v>
       </c>
       <c r="I120" t="n">
-        <v>17.474407</v>
+        <v>17.237204</v>
       </c>
       <c r="J120" t="n">
-        <v>0.76821181972012</v>
+        <v>0.7682118863360905</v>
       </c>
       <c r="K120" t="n">
         <v>13483799552</v>
@@ -6449,16 +6449,16 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>24005713920</v>
+        <v>24042919936</v>
       </c>
       <c r="H121" t="n">
-        <v>17.651886</v>
+        <v>17.203773</v>
       </c>
       <c r="I121" t="n">
-        <v>17.905264</v>
+        <v>17.450718</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.01415103401993945</v>
+        <v>-0.0141509936725811</v>
       </c>
       <c r="K121" t="n">
         <v>17052999680</v>
@@ -6499,16 +6499,16 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>18639048704</v>
+        <v>18350327808</v>
       </c>
       <c r="H122" t="n">
-        <v>22.697176</v>
+        <v>22.077845</v>
       </c>
       <c r="I122" t="n">
-        <v>22.716608</v>
+        <v>22.096746</v>
       </c>
       <c r="J122" t="n">
-        <v>-0.0008554093991498535</v>
+        <v>-0.0008553748140111006</v>
       </c>
       <c r="K122" t="n">
         <v>5416600064</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>11469928448</v>
+        <v>11323559936</v>
       </c>
       <c r="H123" t="n">
-        <v>45.851063</v>
+        <v>45.05319</v>
       </c>
       <c r="I123" t="n">
-        <v>41.04762</v>
+        <v>40.333332</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1170212304635445</v>
+        <v>0.1170212765957448</v>
       </c>
       <c r="K123" t="n">
         <v>3420999936</v>
@@ -6599,16 +6599,16 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>13039959040</v>
+        <v>13041062912</v>
       </c>
       <c r="H124" t="n">
-        <v>26.549438</v>
+        <v>26.521885</v>
       </c>
       <c r="I124" t="n">
-        <v>25.353004</v>
+        <v>25.35515</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0471910153132149</v>
+        <v>0.04601570095227214</v>
       </c>
       <c r="K124" t="n">
         <v>4098851072</v>
@@ -6649,16 +6649,16 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>38069972992</v>
+        <v>37594476544</v>
       </c>
       <c r="H125" t="n">
-        <v>69.84256000000001</v>
+        <v>68.93192000000001</v>
       </c>
       <c r="I125" t="n">
-        <v>67.82231</v>
+        <v>66.93801999999999</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02978739591736113</v>
+        <v>0.02978725692812567</v>
       </c>
       <c r="K125" t="n">
         <v>23721437184</v>
@@ -6699,16 +6699,16 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>20555059200</v>
+        <v>21253548032</v>
       </c>
       <c r="H126" t="n">
-        <v>11.8314</v>
+        <v>11.733288</v>
       </c>
       <c r="I126" t="n">
-        <v>11.609511</v>
+        <v>11.521098</v>
       </c>
       <c r="J126" t="n">
-        <v>0.01911269130973747</v>
+        <v>0.01841751541389547</v>
       </c>
       <c r="K126" t="n">
         <v>10904036352</v>
@@ -6749,16 +6749,16 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>31352309760</v>
+        <v>31166345216</v>
       </c>
       <c r="H127" t="n">
-        <v>13.002592</v>
+        <v>12.883344</v>
       </c>
       <c r="I127" t="n">
-        <v>12.3237095</v>
+        <v>12.210687</v>
       </c>
       <c r="J127" t="n">
-        <v>0.05508751240850018</v>
+        <v>0.05508756386925651</v>
       </c>
       <c r="K127" t="n">
         <v>8903999488</v>
@@ -6797,16 +6797,16 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>13069059072</v>
+        <v>13119619072</v>
       </c>
       <c r="H128" t="n">
-        <v>10.847417</v>
+        <v>10.802785</v>
       </c>
       <c r="I128" t="n">
-        <v>7.7663865</v>
+        <v>7.8252106</v>
       </c>
       <c r="J128" t="n">
-        <v>0.3967135166399458</v>
+        <v>0.380510449137305</v>
       </c>
       <c r="K128" t="n">
         <v>41607999488</v>
@@ -6847,16 +6847,16 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>12922742784</v>
+        <v>12846552064</v>
       </c>
       <c r="H129" t="n">
-        <v>59.695534</v>
+        <v>58.41226</v>
       </c>
       <c r="I129" t="n">
-        <v>43.34889</v>
+        <v>42.5355</v>
       </c>
       <c r="J129" t="n">
-        <v>0.3770948690958409</v>
+        <v>0.3732590424468973</v>
       </c>
       <c r="K129" t="n">
         <v>1057689984</v>
@@ -6897,16 +6897,16 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>24527548416</v>
+        <v>24402042880</v>
       </c>
       <c r="H130" t="n">
-        <v>11.627362</v>
+        <v>11.428374</v>
       </c>
       <c r="I130" t="n">
-        <v>19.69552</v>
+        <v>19.346846</v>
       </c>
       <c r="J130" t="n">
-        <v>-0.4096443252069506</v>
+        <v>-0.4092900723973303</v>
       </c>
       <c r="K130" t="n">
         <v>16454135808</v>
@@ -6947,16 +6947,16 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>16274764800</v>
+        <v>16250303488</v>
       </c>
       <c r="H131" t="n">
-        <v>61.567165</v>
+        <v>61.014927</v>
       </c>
       <c r="I131" t="n">
-        <v>38.053505</v>
+        <v>37.712177</v>
       </c>
       <c r="J131" t="n">
-        <v>0.6179104920821354</v>
+        <v>0.6179104961243687</v>
       </c>
       <c r="K131" t="n">
         <v>13047952384</v>
@@ -6997,16 +6997,16 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>13992715264</v>
+        <v>13707992064</v>
       </c>
       <c r="H132" t="n">
-        <v>37.025375</v>
+        <v>36.224945</v>
       </c>
       <c r="I132" t="n">
-        <v>39.72298</v>
+        <v>39.067257</v>
       </c>
       <c r="J132" t="n">
-        <v>-0.06791043874351832</v>
+        <v>-0.07275432723623265</v>
       </c>
       <c r="K132" t="n">
         <v>2231787008</v>
@@ -7047,16 +7047,16 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>25893611520</v>
+        <v>25589776384</v>
       </c>
       <c r="H133" t="n">
-        <v>31.823545</v>
+        <v>30.675629</v>
       </c>
       <c r="I133" t="n">
-        <v>29.507748</v>
+        <v>28.39296</v>
       </c>
       <c r="J133" t="n">
-        <v>0.07848098065633469</v>
+        <v>0.08039559806374541</v>
       </c>
       <c r="K133" t="n">
         <v>3866627072</v>
@@ -7097,16 +7097,16 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>16937333760</v>
+        <v>16854520832</v>
       </c>
       <c r="H134" t="n">
-        <v>29.037035</v>
+        <v>28.547325</v>
       </c>
       <c r="I134" t="n">
-        <v>34.004818</v>
+        <v>33.431324</v>
       </c>
       <c r="J134" t="n">
-        <v>-0.1460905628137754</v>
+        <v>-0.146090504821167</v>
       </c>
       <c r="K134" t="n">
         <v>2200154880</v>
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>44195217408</v>
+        <v>42690449408</v>
       </c>
       <c r="H135" t="n">
-        <v>24.155087</v>
+        <v>23.310408</v>
       </c>
       <c r="I135" t="n">
-        <v>53.217113</v>
+        <v>51.88533</v>
       </c>
       <c r="J135" t="n">
-        <v>-0.5461030176514836</v>
+        <v>-0.5507322011828777</v>
       </c>
       <c r="K135" t="n">
         <v>2543911936</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>9948462080</v>
+        <v>10000762880</v>
       </c>
       <c r="H136" t="n">
-        <v>25.065887</v>
+        <v>24.624868</v>
       </c>
       <c r="I136" t="n">
-        <v>26.120708</v>
+        <v>25.66113</v>
       </c>
       <c r="J136" t="n">
-        <v>-0.04038255777753041</v>
+        <v>-0.04038255524990519</v>
       </c>
       <c r="K136" t="n">
         <v>2347399936</v>
@@ -7247,16 +7247,16 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>10781342720</v>
+        <v>11041592320</v>
       </c>
       <c r="H137" t="n">
-        <v>11.323334</v>
+        <v>11.7932205</v>
       </c>
       <c r="I137" t="n">
-        <v>13.808944</v>
+        <v>14.142277</v>
       </c>
       <c r="J137" t="n">
-        <v>-0.1800000057933467</v>
+        <v>-0.1661017175664145</v>
       </c>
       <c r="K137" t="n">
         <v>11253399552</v>
@@ -7297,16 +7297,16 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>44016177152</v>
+        <v>43821215744</v>
       </c>
       <c r="H138" t="n">
-        <v>37.65321</v>
+        <v>37.444294</v>
       </c>
       <c r="I138" t="n">
-        <v>33.388496</v>
+        <v>33.13732</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1277300421079164</v>
+        <v>0.1299735162650448</v>
       </c>
       <c r="K138" t="n">
         <v>2986718976</v>
@@ -7347,16 +7347,16 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>11258266624</v>
+        <v>11063433216</v>
       </c>
       <c r="H139" t="n">
-        <v>16.168522</v>
+        <v>15.888713</v>
       </c>
       <c r="I139" t="n">
-        <v>19.188679</v>
+        <v>18.856604</v>
       </c>
       <c r="J139" t="n">
-        <v>-0.1573926480296013</v>
+        <v>-0.1573926567053114</v>
       </c>
       <c r="K139" t="n">
         <v>4059705088</v>
@@ -7397,11 +7397,11 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>23720591360</v>
+        <v>22496337920</v>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="n">
-        <v>-142.8347</v>
+        <v>-135.2562</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
@@ -7443,16 +7443,16 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>14520172544</v>
+        <v>14546952192</v>
       </c>
       <c r="H141" t="n">
-        <v>43.185837</v>
+        <v>41.68343</v>
       </c>
       <c r="I141" t="n">
-        <v>23.574879</v>
+        <v>22.687601</v>
       </c>
       <c r="J141" t="n">
-        <v>0.8318582674379793</v>
+        <v>0.8372779916219437</v>
       </c>
       <c r="K141" t="n">
         <v>2509900032</v>
@@ -7493,16 +7493,16 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>17833297920</v>
+        <v>17639936000</v>
       </c>
       <c r="H142" t="n">
-        <v>36.404762</v>
+        <v>35.92262</v>
       </c>
       <c r="I142" t="n">
-        <v>28.849058</v>
+        <v>28.466982</v>
       </c>
       <c r="J142" t="n">
-        <v>0.2619047041328004</v>
+        <v>0.2619047568864168</v>
       </c>
       <c r="K142" t="n">
         <v>8451999744</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>26088609792</v>
+        <v>25267906560</v>
       </c>
       <c r="H143" t="n">
-        <v>25.526316</v>
+        <v>24.631578</v>
       </c>
       <c r="I143" t="n">
-        <v>13.857142</v>
+        <v>13.3714285</v>
       </c>
       <c r="J143" t="n">
-        <v>0.8421053922951791</v>
+        <v>0.842105202147998</v>
       </c>
       <c r="K143" t="n">
         <v>19246000128</v>
@@ -7593,16 +7593,16 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>27468883968</v>
+        <v>28817858560</v>
       </c>
       <c r="H144" t="n">
-        <v>20.276978</v>
+        <v>20.917267</v>
       </c>
       <c r="I144" t="n">
-        <v>14.912698</v>
+        <v>15.383598</v>
       </c>
       <c r="J144" t="n">
-        <v>0.3597122398643089</v>
+        <v>0.3597122727725985</v>
       </c>
       <c r="K144" t="n">
         <v>25020999680</v>
@@ -7643,16 +7643,16 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>12631728128</v>
+        <v>12555925504</v>
       </c>
       <c r="H145" t="n">
-        <v>25.71605</v>
+        <v>25.598766</v>
       </c>
       <c r="I145" t="n">
-        <v>26.70513</v>
+        <v>26.583336</v>
       </c>
       <c r="J145" t="n">
-        <v>-0.03703707864369132</v>
+        <v>-0.03703711227213913</v>
       </c>
       <c r="K145" t="n">
         <v>1114637056</v>
@@ -7693,16 +7693,16 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>45720281088</v>
+        <v>46394126336</v>
       </c>
       <c r="H146" t="n">
-        <v>14.152046</v>
+        <v>14.315789</v>
       </c>
       <c r="I146" t="n">
-        <v>12.160804</v>
+        <v>12.301508</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1637426275433762</v>
+        <v>0.1637426078168629</v>
       </c>
       <c r="K146" t="n">
         <v>27953000448</v>
@@ -7743,16 +7743,16 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>34977394688</v>
+        <v>35102986240</v>
       </c>
       <c r="H147" t="n">
-        <v>23.576721</v>
+        <v>23.475067</v>
       </c>
       <c r="I147" t="n">
-        <v>21.26969</v>
+        <v>21.346062</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1084656616998179</v>
+        <v>0.09973760031241352</v>
       </c>
       <c r="K147" t="n">
         <v>14168000512</v>
@@ -7793,16 +7793,16 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>19229366272</v>
+        <v>19374231552</v>
       </c>
       <c r="H148" t="n">
-        <v>21.328342</v>
+        <v>21.271456</v>
       </c>
       <c r="I148" t="n">
-        <v>19.013346</v>
+        <v>18.962633</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1217563704989117</v>
+        <v>0.1217564565005291</v>
       </c>
       <c r="K148" t="n">
         <v>8640799744</v>
@@ -7843,16 +7843,16 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>11537951744</v>
+        <v>11485776896</v>
       </c>
       <c r="H149" t="n">
-        <v>12.165738</v>
+        <v>12.108435</v>
       </c>
       <c r="I149" t="n">
-        <v>12.586455</v>
+        <v>12.309078</v>
       </c>
       <c r="J149" t="n">
-        <v>-0.03342617122930969</v>
+        <v>-0.01630040852775483</v>
       </c>
       <c r="K149" t="n">
         <v>30577500160</v>
@@ -7893,16 +7893,16 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>11451289600</v>
+        <v>11510228992</v>
       </c>
       <c r="H150" t="n">
-        <v>8.717949000000001</v>
+        <v>8.775641</v>
       </c>
       <c r="I150" t="n">
-        <v>8.947369</v>
+        <v>9.006577999999999</v>
       </c>
       <c r="J150" t="n">
-        <v>-0.02564105716440213</v>
+        <v>-0.02564092599875323</v>
       </c>
       <c r="K150" t="n">
         <v>5085699072</v>
@@ -7943,16 +7943,16 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>9653927936</v>
+        <v>9813085184</v>
       </c>
       <c r="H151" t="n">
-        <v>7.830443</v>
+        <v>7.868979</v>
       </c>
       <c r="I151" t="n">
-        <v>9.031110999999999</v>
+        <v>9.075556000000001</v>
       </c>
       <c r="J151" t="n">
-        <v>-0.1329479839191434</v>
+        <v>-0.132947997896768</v>
       </c>
       <c r="K151" t="n">
         <v>18177417216</v>
@@ -7993,16 +7993,16 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>23981119488</v>
+        <v>22437681152</v>
       </c>
       <c r="H152" t="n">
-        <v>12.778986</v>
+        <v>11.946429</v>
       </c>
       <c r="I152" t="n">
-        <v>19.594444</v>
+        <v>18.583334</v>
       </c>
       <c r="J152" t="n">
-        <v>-0.3478260470161848</v>
+        <v>-0.3571428571428572</v>
       </c>
       <c r="K152" t="n">
         <v>3905718016</v>
@@ -8043,16 +8043,16 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>24441305088</v>
+        <v>24389795840</v>
       </c>
       <c r="H153" t="n">
-        <v>48.120285</v>
+        <v>47.584507</v>
       </c>
       <c r="I153" t="n">
-        <v>29.147142</v>
+        <v>28.958572</v>
       </c>
       <c r="J153" t="n">
-        <v>0.6509435127464642</v>
+        <v>0.6431924543793113</v>
       </c>
       <c r="K153" t="n">
         <v>2471977984</v>
@@ -8093,16 +8093,16 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>29015322624</v>
+        <v>27884814336</v>
       </c>
       <c r="H154" t="n">
-        <v>215.34146</v>
+        <v>208.675</v>
       </c>
       <c r="I154" t="n">
-        <v>47.724323</v>
+        <v>45.11892</v>
       </c>
       <c r="J154" t="n">
-        <v>3.512195175613073</v>
+        <v>3.624999889181745</v>
       </c>
       <c r="K154" t="n">
         <v>3350401024</v>
@@ -8143,16 +8143,16 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>20907628544</v>
+        <v>20890855424</v>
       </c>
       <c r="H155" t="n">
-        <v>22.391617</v>
+        <v>22.229017</v>
       </c>
       <c r="I155" t="n">
-        <v>19.156761</v>
+        <v>18.994877</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1688623666600007</v>
+        <v>0.1702638032349459</v>
       </c>
       <c r="K155" t="n">
         <v>10522000384</v>
@@ -8193,16 +8193,16 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>18817398784</v>
+        <v>18899781632</v>
       </c>
       <c r="H156" t="n">
-        <v>24.8123</v>
+        <v>24.211832</v>
       </c>
       <c r="I156" t="n">
-        <v>23.859446</v>
+        <v>23.263441</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03993613263275275</v>
+        <v>0.04076744278716116</v>
       </c>
       <c r="K156" t="n">
         <v>7285899776</v>
@@ -8243,16 +8243,16 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>20983486464</v>
+        <v>20638691328</v>
       </c>
       <c r="H157" t="n">
-        <v>55.536945</v>
+        <v>54.51</v>
       </c>
       <c r="I157" t="n">
-        <v>22.149311</v>
+        <v>21.418467</v>
       </c>
       <c r="J157" t="n">
-        <v>1.507389281770435</v>
+        <v>1.545000069332693</v>
       </c>
       <c r="K157" t="n">
         <v>4417999872</v>
@@ -8293,16 +8293,16 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>12110569472</v>
+        <v>11976112128</v>
       </c>
       <c r="H158" t="n">
-        <v>48.082706</v>
+        <v>47.370785</v>
       </c>
       <c r="I158" t="n">
-        <v>35.65985</v>
+        <v>35.26394</v>
       </c>
       <c r="J158" t="n">
-        <v>0.3483709550096257</v>
+        <v>0.3433208257500437</v>
       </c>
       <c r="K158" t="n">
         <v>1666000000</v>
@@ -8343,16 +8343,16 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>13055820800</v>
+        <v>13037554688</v>
       </c>
       <c r="H159" t="n">
-        <v>33.40187</v>
+        <v>33.210278</v>
       </c>
       <c r="I159" t="n">
-        <v>34.038097</v>
+        <v>33.842857</v>
       </c>
       <c r="J159" t="n">
-        <v>-0.01869161486906856</v>
+        <v>-0.01869165478552826</v>
       </c>
       <c r="K159" t="n">
         <v>1547928064</v>
@@ -8393,16 +8393,16 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>40353390592</v>
+        <v>40145481728</v>
       </c>
       <c r="H160" t="n">
-        <v>28.950626</v>
+        <v>28.07878</v>
       </c>
       <c r="I160" t="n">
-        <v>26.784256</v>
+        <v>25.977648</v>
       </c>
       <c r="J160" t="n">
-        <v>0.08088221677690055</v>
+        <v>0.08088230312459377</v>
       </c>
       <c r="K160" t="n">
         <v>5146327040</v>
@@ -8443,16 +8443,16 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>26849056768</v>
+        <v>27353081856</v>
       </c>
       <c r="H161" t="n">
-        <v>54.851486</v>
+        <v>55.881187</v>
       </c>
       <c r="I161" t="n">
-        <v>49.464287</v>
+        <v>50.392857</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1089108794795728</v>
+        <v>0.1089108720309309</v>
       </c>
       <c r="K161" t="n">
         <v>3570469888</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>47378960384</v>
+        <v>48608321536</v>
       </c>
       <c r="H162" t="n">
-        <v>23.160572</v>
+        <v>23.686214</v>
       </c>
       <c r="I162" t="n">
-        <v>21.775784</v>
+        <v>22.340809</v>
       </c>
       <c r="J162" t="n">
-        <v>0.06359302608806172</v>
+        <v>0.06022185678235736</v>
       </c>
       <c r="K162" t="n">
         <v>21497755648</v>
@@ -8543,16 +8543,16 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>12634254336</v>
+        <v>12712592384</v>
       </c>
       <c r="H163" t="n">
-        <v>28.140762</v>
+        <v>28.315248</v>
       </c>
       <c r="I163" t="n">
-        <v>29.940718</v>
+        <v>30.126366</v>
       </c>
       <c r="J163" t="n">
-        <v>-0.06011732918362223</v>
+        <v>-0.06011737359892666</v>
       </c>
       <c r="K163" t="n">
         <v>645169024</v>
@@ -8593,16 +8593,16 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>21134235648</v>
+        <v>20860145664</v>
       </c>
       <c r="H164" t="n">
-        <v>15.825329</v>
+        <v>15.650225</v>
       </c>
       <c r="I164" t="n">
-        <v>8.255126000000001</v>
+        <v>7.949887</v>
       </c>
       <c r="J164" t="n">
-        <v>0.9170305819681006</v>
+        <v>0.9686097425032583</v>
       </c>
       <c r="K164" t="n">
         <v>2305242880</v>
@@ -8643,16 +8643,16 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>15543904256</v>
+        <v>14899875840</v>
       </c>
       <c r="H165" t="n">
-        <v>22.642046</v>
+        <v>21.708412</v>
       </c>
       <c r="I165" t="n">
-        <v>19.407469</v>
+        <v>18.853897</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1666666065523537</v>
+        <v>0.1514018560725139</v>
       </c>
       <c r="K165" t="n">
         <v>7372643840</v>
@@ -8693,11 +8693,11 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>22033305600</v>
+        <v>21190062080</v>
       </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
-        <v>147.73077</v>
+        <v>148.11539</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
@@ -8739,16 +8739,16 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>21349097472</v>
+        <v>20985079808</v>
       </c>
       <c r="H167" t="n">
-        <v>24.365198</v>
+        <v>23.979141</v>
       </c>
       <c r="I167" t="n">
-        <v>21.68157</v>
+        <v>21.311886</v>
       </c>
       <c r="J167" t="n">
-        <v>0.123774615952627</v>
+        <v>0.1251534003137966</v>
       </c>
       <c r="K167" t="n">
         <v>2724524032</v>
@@ -8789,16 +8789,16 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>48584454144</v>
+        <v>47641001984</v>
       </c>
       <c r="H168" t="n">
-        <v>33.697193</v>
+        <v>32.47415</v>
       </c>
       <c r="I168" t="n">
-        <v>23.518559</v>
+        <v>22.66495</v>
       </c>
       <c r="J168" t="n">
-        <v>0.4327915668642794</v>
+        <v>0.4327916011286148</v>
       </c>
       <c r="K168" t="n">
         <v>9096999936</v>
@@ -8839,16 +8839,16 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>10654007296</v>
+        <v>10628045824</v>
       </c>
       <c r="H169" t="n">
-        <v>16.199247</v>
+        <v>15.99624</v>
       </c>
       <c r="I169" t="n">
-        <v>17.659836</v>
+        <v>17.438524</v>
       </c>
       <c r="J169" t="n">
-        <v>-0.08270682694901577</v>
+        <v>-0.08270677036657459</v>
       </c>
       <c r="K169" t="n">
         <v>2205530880</v>
@@ -8889,16 +8889,16 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>11411330048</v>
+        <v>11367856128</v>
       </c>
       <c r="H170" t="n">
-        <v>22.111414</v>
+        <v>22.024523</v>
       </c>
       <c r="I170" t="n">
-        <v>20.54798</v>
+        <v>20.411617</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0760869924926928</v>
+        <v>0.07901902137395567</v>
       </c>
       <c r="K170" t="n">
         <v>4246592000</v>
@@ -8939,16 +8939,16 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>15477176320</v>
+        <v>15192077312</v>
       </c>
       <c r="H171" t="n">
-        <v>29.961748</v>
+        <v>29.382273</v>
       </c>
       <c r="I171" t="n">
-        <v>22.517454</v>
+        <v>21.780289</v>
       </c>
       <c r="J171" t="n">
-        <v>0.3306010528543768</v>
+        <v>0.3490304467493521</v>
       </c>
       <c r="K171" t="n">
         <v>5881267200</v>
@@ -8989,16 +8989,16 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>24148518912</v>
+        <v>24108109824</v>
       </c>
       <c r="H172" t="n">
-        <v>7.593893</v>
+        <v>7.4060607</v>
       </c>
       <c r="I172" t="n">
-        <v>7.0056343</v>
+        <v>6.884507</v>
       </c>
       <c r="J172" t="n">
-        <v>0.08396937019678563</v>
+        <v>0.07575759600505894</v>
       </c>
       <c r="K172" t="n">
         <v>14930261573632</v>
@@ -9037,16 +9037,16 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>11666549760</v>
+        <v>11310827520</v>
       </c>
       <c r="H173" t="n">
-        <v>24.563786</v>
+        <v>22.91358</v>
       </c>
       <c r="I173" t="n">
-        <v>28.423811</v>
+        <v>26.514288</v>
       </c>
       <c r="J173" t="n">
-        <v>-0.1358025143074586</v>
+        <v>-0.1358025529480558</v>
       </c>
       <c r="K173" t="n">
         <v>8399001088</v>
@@ -9087,16 +9087,16 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>21689235456</v>
+        <v>21474320384</v>
       </c>
       <c r="H174" t="n">
-        <v>28.015772</v>
+        <v>27.48265</v>
       </c>
       <c r="I174" t="n">
-        <v>15.445217</v>
+        <v>15.151305</v>
       </c>
       <c r="J174" t="n">
-        <v>0.8138801157665831</v>
+        <v>0.8138800585164114</v>
       </c>
       <c r="K174" t="n">
         <v>6046199808</v>
@@ -9137,16 +9137,16 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>12248547328</v>
+        <v>12277151744</v>
       </c>
       <c r="H175" t="n">
-        <v>38.65343</v>
+        <v>38.797836</v>
       </c>
       <c r="I175" t="n">
-        <v>30.504274</v>
+        <v>30.618235</v>
       </c>
       <c r="J175" t="n">
-        <v>0.2671480068661853</v>
+        <v>0.2671480246983537</v>
       </c>
       <c r="K175" t="n">
         <v>6152900096</v>
@@ -9187,16 +9187,16 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>24546813952</v>
+        <v>24227702784</v>
       </c>
       <c r="H176" t="n">
-        <v>38.108562</v>
+        <v>37.33792</v>
       </c>
       <c r="I176" t="n">
-        <v>24.997993</v>
+        <v>24.492477</v>
       </c>
       <c r="J176" t="n">
-        <v>0.5244648640392851</v>
+        <v>0.5244648387339506</v>
       </c>
       <c r="K176" t="n">
         <v>5571115008</v>
@@ -9237,16 +9237,16 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>11690681344</v>
+        <v>11476117504</v>
       </c>
       <c r="H177" t="n">
-        <v>22.17442</v>
+        <v>21.689922</v>
       </c>
       <c r="I177" t="n">
-        <v>14.996068</v>
+        <v>14.668414</v>
       </c>
       <c r="J177" t="n">
-        <v>0.4786822785812923</v>
+        <v>0.478682153367092</v>
       </c>
       <c r="K177" t="n">
         <v>5091576832</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>33654145024</v>
+        <v>33170552832</v>
       </c>
       <c r="H178" t="n">
-        <v>14.632354</v>
+        <v>14.463235</v>
       </c>
       <c r="I178" t="n">
-        <v>11.035121</v>
+        <v>10.907578</v>
       </c>
       <c r="J178" t="n">
-        <v>0.3259803857157524</v>
+        <v>0.3259804330530571</v>
       </c>
       <c r="K178" t="n">
         <v>34136000512</v>
@@ -9335,11 +9335,11 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>32016547840</v>
+        <v>31307956224</v>
       </c>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>150.61111</v>
+        <v>143.19444</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
@@ -9381,16 +9381,16 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>27807580160</v>
+        <v>27766654976</v>
       </c>
       <c r="H180" t="n">
-        <v>9.081409000000001</v>
+        <v>9.0255165</v>
       </c>
       <c r="I180" t="n">
-        <v>11.551778</v>
+        <v>11.48068</v>
       </c>
       <c r="J180" t="n">
-        <v>-0.2138518416818606</v>
+        <v>-0.2138517491995248</v>
       </c>
       <c r="K180" t="n">
         <v>9185000448</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>22995398656</v>
+        <v>22729541632</v>
       </c>
       <c r="H181" t="n">
-        <v>11.720045</v>
+        <v>11.557671</v>
       </c>
       <c r="I181" t="n">
-        <v>11.193583</v>
+        <v>11.038502</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04703248280733696</v>
+        <v>0.04703255930922512</v>
       </c>
       <c r="K181" t="n">
         <v>7097299968</v>
@@ -9479,16 +9479,16 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>36612743168</v>
+        <v>37053886464</v>
       </c>
       <c r="H182" t="n">
-        <v>24.41033</v>
+        <v>24.639887</v>
       </c>
       <c r="I182" t="n">
-        <v>20.598063</v>
+        <v>20.791767</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1850789076623369</v>
+        <v>0.1850790267128331</v>
       </c>
       <c r="K182" t="n">
         <v>17078700032</v>
@@ -9529,16 +9529,16 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>12525100032</v>
+        <v>13169168384</v>
       </c>
       <c r="H183" t="n">
-        <v>17.784544</v>
+        <v>17.606396</v>
       </c>
       <c r="I183" t="n">
-        <v>11.791925</v>
+        <v>12.398292</v>
       </c>
       <c r="J183" t="n">
-        <v>0.5081968380904729</v>
+        <v>0.4200662478347825</v>
       </c>
       <c r="K183" t="n">
         <v>60007297024</v>
@@ -9579,16 +9579,16 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>16370787328</v>
+        <v>16411888640</v>
       </c>
       <c r="H184" t="n">
-        <v>18.439816</v>
+        <v>19.014286</v>
       </c>
       <c r="I184" t="n">
-        <v>20.218275</v>
+        <v>20.269035</v>
       </c>
       <c r="J184" t="n">
-        <v>-0.08796294441538643</v>
+        <v>-0.06190472314049489</v>
       </c>
       <c r="K184" t="n">
         <v>9504100352</v>
@@ -9629,11 +9629,11 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>29100384256</v>
+        <v>28807655424</v>
       </c>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="n">
-        <v>17.724138</v>
+        <v>17.275864</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
@@ -9675,11 +9675,11 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>22312087552</v>
+        <v>21661700096</v>
       </c>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="n">
-        <v>7.021661</v>
+        <v>6.628159</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
@@ -9721,16 +9721,16 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>21407637504</v>
+        <v>21276379136</v>
       </c>
       <c r="H187" t="n">
-        <v>43.660572</v>
+        <v>46.094124</v>
       </c>
       <c r="I187" t="n">
-        <v>12.736323</v>
+        <v>12.658233</v>
       </c>
       <c r="J187" t="n">
-        <v>2.428035862469883</v>
+        <v>2.641434313936235</v>
       </c>
       <c r="K187" t="n">
         <v>742873024</v>
@@ -9771,16 +9771,16 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>10608176128</v>
+        <v>10832113664</v>
       </c>
       <c r="H188" t="n">
-        <v>24.335365</v>
+        <v>24.887022</v>
       </c>
       <c r="I188" t="n">
-        <v>22.327272</v>
+        <v>22.798601</v>
       </c>
       <c r="J188" t="n">
-        <v>0.08993902165925149</v>
+        <v>0.09160303301066586</v>
       </c>
       <c r="K188" t="n">
         <v>5670615040</v>
@@ -9821,16 +9821,16 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>10664466432</v>
+        <v>10497551360</v>
       </c>
       <c r="H189" t="n">
-        <v>15.735715</v>
+        <v>15.099292</v>
       </c>
       <c r="I189" t="n">
-        <v>15.089041</v>
+        <v>14.582192</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0428571968225151</v>
+        <v>0.03546106099823687</v>
       </c>
       <c r="K189" t="n">
         <v>26043435008</v>
@@ -9871,16 +9871,16 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>11202631680</v>
+        <v>11071504384</v>
       </c>
       <c r="H190" t="n">
-        <v>19.650543</v>
+        <v>19.11698</v>
       </c>
       <c r="I190" t="n">
-        <v>17.709965</v>
+        <v>17.229094</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1095754847623922</v>
+        <v>0.10957546577899</v>
       </c>
       <c r="K190" t="n">
         <v>5216155136</v>
@@ -9921,11 +9921,11 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>24319795200</v>
+        <v>22861211648</v>
       </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="n">
-        <v>25.140625</v>
+        <v>23.324219</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
@@ -9967,16 +9967,16 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>22911862784</v>
+        <v>22916751360</v>
       </c>
       <c r="H192" t="n">
-        <v>56.457832</v>
+        <v>56.33735</v>
       </c>
       <c r="I192" t="n">
-        <v>24.279793</v>
+        <v>24.22798</v>
       </c>
       <c r="J192" t="n">
-        <v>1.325301208292839</v>
+        <v>1.325301160063695</v>
       </c>
       <c r="K192" t="n">
         <v>2679088128</v>
@@ -10017,16 +10017,16 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>24459782144</v>
+        <v>24138659840</v>
       </c>
       <c r="H193" t="n">
-        <v>43.275196</v>
+        <v>42.664093</v>
       </c>
       <c r="I193" t="n">
-        <v>33.62952</v>
+        <v>33.283134</v>
       </c>
       <c r="J193" t="n">
-        <v>0.2868216971279995</v>
+        <v>0.2818532353353504</v>
       </c>
       <c r="K193" t="n">
         <v>1931872000</v>
@@ -10065,16 +10065,16 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>22859108352</v>
+        <v>22621165568</v>
       </c>
       <c r="H194" t="n">
-        <v>75.80919</v>
+        <v>74.60285</v>
       </c>
       <c r="I194" t="n">
-        <v>48.789474</v>
+        <v>48.219757</v>
       </c>
       <c r="J194" t="n">
-        <v>0.5538021582278179</v>
+        <v>0.547142802897161</v>
       </c>
       <c r="K194" t="n">
         <v>2245750016</v>
@@ -10115,16 +10115,16 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>39668400128</v>
+        <v>38958751744</v>
       </c>
       <c r="H195" t="n">
-        <v>54.640835</v>
+        <v>54.66554</v>
       </c>
       <c r="I195" t="n">
-        <v>64.28333000000001</v>
+        <v>63.133335</v>
       </c>
       <c r="J195" t="n">
-        <v>-0.1499999299974037</v>
+        <v>-0.1341255772406131</v>
       </c>
       <c r="K195" t="n">
         <v>2573544960</v>
@@ -10165,16 +10165,16 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>23522203648</v>
+        <v>24189399040</v>
       </c>
       <c r="H196" t="n">
-        <v>20.130468</v>
+        <v>20.701458</v>
       </c>
       <c r="I196" t="n">
-        <v>22.938345</v>
+        <v>23.58898</v>
       </c>
       <c r="J196" t="n">
-        <v>-0.1224097466491153</v>
+        <v>-0.1224097862646032</v>
       </c>
       <c r="K196" t="n">
         <v>11654554624</v>
@@ -10215,16 +10215,16 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>33710221312</v>
+        <v>32823197696</v>
       </c>
       <c r="H197" t="n">
-        <v>10.444332</v>
+        <v>9.944834999999999</v>
       </c>
       <c r="I197" t="n">
-        <v>8.612902999999999</v>
+        <v>8.200993</v>
       </c>
       <c r="J197" t="n">
-        <v>0.2126378295448119</v>
+        <v>0.2126379086044823</v>
       </c>
       <c r="K197" t="n">
         <v>57985998848</v>
@@ -10265,16 +10265,16 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>19630911488</v>
+        <v>19240157184</v>
       </c>
       <c r="H198" t="n">
-        <v>16.935623</v>
+        <v>16.61148</v>
       </c>
       <c r="I198" t="n">
-        <v>15.568867</v>
+        <v>15.258968</v>
       </c>
       <c r="J198" t="n">
-        <v>0.08778776259055987</v>
+        <v>0.08863718699718093</v>
       </c>
       <c r="K198" t="n">
         <v>3077799936</v>
@@ -10315,16 +10315,16 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>12391725056</v>
+        <v>12708645888</v>
       </c>
       <c r="H199" t="n">
-        <v>10.264628</v>
+        <v>10.417501</v>
       </c>
       <c r="I199" t="n">
-        <v>10.722467</v>
+        <v>10.882158</v>
       </c>
       <c r="J199" t="n">
-        <v>-0.04269903558574717</v>
+        <v>-0.04269897569948911</v>
       </c>
       <c r="K199" t="n">
         <v>16460284928</v>
@@ -10365,7 +10365,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>13063025664</v>
+        <v>13085165568</v>
       </c>
       <c r="H200" t="n">
         <v>9.196642000000001</v>
@@ -10415,16 +10415,16 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>17482323968</v>
+        <v>17376493568</v>
       </c>
       <c r="H201" t="n">
-        <v>33.17949</v>
+        <v>32.696583</v>
       </c>
       <c r="I201" t="n">
-        <v>20.539682</v>
+        <v>20.240742</v>
       </c>
       <c r="J201" t="n">
-        <v>0.6153847951492142</v>
+        <v>0.6153846039833912</v>
       </c>
       <c r="K201" t="n">
         <v>38651998208</v>
@@ -10465,16 +10465,16 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>26260379648</v>
+        <v>25930326016</v>
       </c>
       <c r="H202" t="n">
-        <v>29.603933</v>
+        <v>29.187151</v>
       </c>
       <c r="I202" t="n">
-        <v>28.104</v>
+        <v>27.864</v>
       </c>
       <c r="J202" t="n">
-        <v>0.05337080130942229</v>
+        <v>0.0474860393339076</v>
       </c>
       <c r="K202" t="n">
         <v>5361999872</v>
@@ -10515,16 +10515,16 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>26774640640</v>
+        <v>26645735424</v>
       </c>
       <c r="H203" t="n">
-        <v>34.24612</v>
+        <v>33.89367</v>
       </c>
       <c r="I203" t="n">
-        <v>33.137577</v>
+        <v>32.79653</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03345274761639927</v>
+        <v>0.03345292931904686</v>
       </c>
       <c r="K203" t="n">
         <v>1598200064</v>
@@ -10565,16 +10565,16 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>54458003456</v>
+        <v>54079959040</v>
       </c>
       <c r="H204" t="n">
-        <v>67.90953</v>
+        <v>66.55714399999999</v>
       </c>
       <c r="I204" t="n">
-        <v>41.456394</v>
+        <v>40.630814</v>
       </c>
       <c r="J204" t="n">
-        <v>0.6380954407177817</v>
+        <v>0.638095264347891</v>
       </c>
       <c r="K204" t="n">
         <v>9093999616</v>
@@ -10615,16 +10615,16 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>34049187840</v>
+        <v>34166489088</v>
       </c>
       <c r="H205" t="n">
-        <v>12.233717</v>
+        <v>12.275863</v>
       </c>
       <c r="I205" t="n">
-        <v>11.695971</v>
+        <v>11.736264</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04597702918381041</v>
+        <v>0.0459770673188673</v>
       </c>
       <c r="K205" t="n">
         <v>3926258944</v>
@@ -10665,16 +10665,16 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>39318827008</v>
+        <v>38944919552</v>
       </c>
       <c r="H206" t="n">
-        <v>41.331944</v>
+        <v>40.82549</v>
       </c>
       <c r="I206" t="n">
-        <v>32.774227</v>
+        <v>32.462555</v>
       </c>
       <c r="J206" t="n">
-        <v>0.2611111773894772</v>
+        <v>0.2576178923686074</v>
       </c>
       <c r="K206" t="n">
         <v>7594599936</v>
@@ -10715,16 +10715,16 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>17810808832</v>
+        <v>17419737088</v>
       </c>
       <c r="H207" t="n">
-        <v>26.956757</v>
+        <v>25.973827</v>
       </c>
       <c r="I207" t="n">
-        <v>23.141531</v>
+        <v>22.257542</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1648648916098074</v>
+        <v>0.1669674486068586</v>
       </c>
       <c r="K207" t="n">
         <v>3046055936</v>
@@ -10765,16 +10765,16 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>10089312256</v>
+        <v>9997908992</v>
       </c>
       <c r="H208" t="n">
-        <v>12.339431</v>
+        <v>12.2331295</v>
       </c>
       <c r="I208" t="n">
-        <v>10.595113</v>
+        <v>10.439791</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1646342044676634</v>
+        <v>0.1717791572647385</v>
       </c>
       <c r="K208" t="n">
         <v>2486235904</v>
@@ -10813,16 +10813,16 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>35971788800</v>
+        <v>36055470080</v>
       </c>
       <c r="H209" t="n">
-        <v>21.451056</v>
+        <v>21.351248</v>
       </c>
       <c r="I209" t="n">
-        <v>21.409964</v>
+        <v>21.310345</v>
       </c>
       <c r="J209" t="n">
-        <v>0.001919293278587642</v>
+        <v>0.001919396424600261</v>
       </c>
       <c r="K209" t="n">
         <v>9306699776</v>
@@ -10863,16 +10863,16 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>33841891328</v>
+        <v>33253814272</v>
       </c>
       <c r="H210" t="n">
-        <v>29.515932</v>
+        <v>28.989569</v>
       </c>
       <c r="I210" t="n">
-        <v>22.910482</v>
+        <v>22.911661</v>
       </c>
       <c r="J210" t="n">
-        <v>0.2883156277550163</v>
+        <v>0.2652757475767471</v>
       </c>
       <c r="K210" t="n">
         <v>10561999872</v>
@@ -10913,16 +10913,16 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>49005580288</v>
+        <v>48732102656</v>
       </c>
       <c r="H211" t="n">
-        <v>62.202312</v>
+        <v>60.649715</v>
       </c>
       <c r="I211" t="n">
-        <v>60.79661</v>
+        <v>60.649715</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02312138785369777</v>
+        <v>0</v>
       </c>
       <c r="K211" t="n">
         <v>1662397952</v>
@@ -10963,16 +10963,16 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>24404348928</v>
+        <v>24493254656</v>
       </c>
       <c r="H212" t="n">
-        <v>22.289211</v>
+        <v>22.370413</v>
       </c>
       <c r="I212" t="n">
-        <v>24.646986</v>
+        <v>24.736776</v>
       </c>
       <c r="J212" t="n">
-        <v>-0.09566179816063503</v>
+        <v>-0.09566173861945471</v>
       </c>
       <c r="K212" t="n">
         <v>7829758976</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>29757313024</v>
+        <v>28539017216</v>
       </c>
       <c r="H213" t="n">
-        <v>19.5</v>
+        <v>19.071428</v>
       </c>
       <c r="I213" t="n">
-        <v>9.413793999999999</v>
+        <v>9.206897</v>
       </c>
       <c r="J213" t="n">
-        <v>1.071428374149679</v>
+        <v>1.071428408507231</v>
       </c>
       <c r="K213" t="n">
         <v>892591996928</v>
@@ -11063,16 +11063,16 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>14336723968</v>
+        <v>14629359616</v>
       </c>
       <c r="H214" t="n">
-        <v>37.769352</v>
+        <v>38.601265</v>
       </c>
       <c r="I214" t="n">
-        <v>40.729134</v>
+        <v>41.56048</v>
       </c>
       <c r="J214" t="n">
-        <v>-0.07266989767079268</v>
+        <v>-0.07120261844906506</v>
       </c>
       <c r="K214" t="n">
         <v>3426288128</v>
@@ -11113,16 +11113,16 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>34834362368</v>
+        <v>34432733184</v>
       </c>
       <c r="H215" t="n">
-        <v>37.17143</v>
+        <v>36.932114</v>
       </c>
       <c r="I215" t="n">
-        <v>30.128422</v>
+        <v>29.778946</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2337662423873377</v>
+        <v>0.2402089046402112</v>
       </c>
       <c r="K215" t="n">
         <v>8730000384</v>
@@ -11163,16 +11163,16 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>15504202752</v>
+        <v>15689264128</v>
       </c>
       <c r="H216" t="n">
-        <v>17.586777</v>
+        <v>17.719007</v>
       </c>
       <c r="I216" t="n">
-        <v>16.496124</v>
+        <v>16.620155</v>
       </c>
       <c r="J216" t="n">
-        <v>0.06611571300021768</v>
+        <v>0.06611562888553091</v>
       </c>
       <c r="K216" t="n">
         <v>11434000384</v>
@@ -11213,16 +11213,16 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>15967919104</v>
+        <v>15684712448</v>
       </c>
       <c r="H217" t="n">
-        <v>29.627356</v>
+        <v>28.487736</v>
       </c>
       <c r="I217" t="n">
-        <v>19.579176</v>
+        <v>18.82606</v>
       </c>
       <c r="J217" t="n">
-        <v>0.5132075016844426</v>
+        <v>0.5132075431609164</v>
       </c>
       <c r="K217" t="n">
         <v>5190000128</v>
@@ -11263,11 +11263,11 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>19472697344</v>
+        <v>18708279296</v>
       </c>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="n">
-        <v>40.42347</v>
+        <v>39.668365</v>
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
@@ -11309,16 +11309,16 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>24715317248</v>
+        <v>24844009472</v>
       </c>
       <c r="H219" t="n">
-        <v>21.731579</v>
+        <v>21.815584</v>
       </c>
       <c r="I219" t="n">
-        <v>15.610586</v>
+        <v>15.877127</v>
       </c>
       <c r="J219" t="n">
-        <v>0.3921052675408854</v>
+        <v>0.3740259179132346</v>
       </c>
       <c r="K219" t="n">
         <v>4753620992</v>
@@ -11359,11 +11359,11 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>45794844672</v>
+        <v>45378510848</v>
       </c>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="n">
-        <v>81.26124</v>
+        <v>80.52248</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
